--- a/src/main/resources/template/vacationResult.xlsx
+++ b/src/main/resources/template/vacationResult.xlsx
@@ -16,17 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve"> 部门：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">    姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -55,18 +51,6 @@
   </si>
   <si>
     <t xml:space="preserve">                             中央民族干部学院月考勤、考核信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -547,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ15"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -565,7 +549,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -706,7 +690,7 @@
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
@@ -819,159 +803,111 @@
         <v>31</v>
       </c>
       <c r="AG5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AH5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI5" s="1" t="s">
+      <c r="AJ5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AJ5" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="6" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="6" spans="1:36" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
     </row>
-    <row r="7" spans="1:36" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
+    <row r="7" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
     </row>
-    <row r="8" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-    </row>
+    <row r="8" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A8:AJ8"/>
+    <mergeCell ref="A7:AJ7"/>
     <mergeCell ref="X4:AJ4"/>
     <mergeCell ref="A1:AJ3"/>
-    <mergeCell ref="A7:AJ7"/>
+    <mergeCell ref="A6:AJ6"/>
     <mergeCell ref="A4:W4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
